--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1558920.617551169</v>
+        <v>-1536314.456121732</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16811344.3723657</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10710392.47905789</v>
+        <v>10738431.38151829</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>104.1268704037338</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>106.5302366883787</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3021267877003</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>102.4718771365686</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>124.4974567118403</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>43.66527150859858</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,10 +908,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>161.6496014950482</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>49.18944575742962</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>167.2584607986836</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>242.3589329207696</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>286.8761958304261</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1297,19 +1297,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>39.57637241135509</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>242.9686034329944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772972</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>144.8704957999577</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629696</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112169</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430769</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.9257490316895</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112169</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>5.990622819018381</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>67.42894579208244</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>133.3857454398442</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>172.8446075610624</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.49380289235361</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2609,13 +2609,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561534</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.8069000430794</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>82.4364859564395</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2801,10 +2801,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800272</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2858,7 +2858,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2953,10 +2953,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>102.8562685532373</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>408.6672993996419</v>
       </c>
       <c r="C32" t="n">
-        <v>433.761048088414</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432365</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402849</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="35">
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432343</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E43" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3986,7 +3986,7 @@
         <v>413.2012870545403</v>
       </c>
       <c r="F44" t="n">
-        <v>407.3530449561369</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G44" t="n">
         <v>381.1481427242213</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925392</v>
+        <v>66.57964473925396</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169443</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174058</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267643</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W44" t="n">
         <v>384.5711897043296</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432397</v>
+        <v>71.53763939432402</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934398</v>
+        <v>4.96793274293444</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185818</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U46" t="n">
         <v>259.4129604006783</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W46" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811742</v>
+        <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402853</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540.520156951813</v>
+        <v>971.5294739263071</v>
       </c>
       <c r="C2" t="n">
-        <v>540.520156951813</v>
+        <v>971.5294739263071</v>
       </c>
       <c r="D2" t="n">
-        <v>435.3414999783445</v>
+        <v>542.9477996635754</v>
       </c>
       <c r="E2" t="n">
-        <v>435.3414999783445</v>
+        <v>542.9477996635754</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>542.9477996635754</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>141.5499682868393</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,10 +4328,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
         <v>453.9965675465116</v>
@@ -4343,37 +4343,37 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>990.8772529665349</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>975.7751935862497</v>
       </c>
       <c r="Y2" t="n">
-        <v>966.8197274367208</v>
+        <v>971.5294739263071</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="L3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="M3" t="n">
         <v>804.6185656731816</v>
       </c>
-      <c r="L3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1159.957753041174</v>
-      </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.5146080671432</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C4" t="n">
-        <v>457.9528965503681</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9528965503681</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E4" t="n">
-        <v>288.1948928011053</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,49 +4489,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1593.676483477823</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1593.676483477823</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1593.676483477823</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>1593.676483477823</v>
       </c>
       <c r="W4" t="n">
-        <v>857.934278753035</v>
+        <v>1321.650079064114</v>
       </c>
       <c r="X4" t="n">
-        <v>857.934278753035</v>
+        <v>1076.258324397527</v>
       </c>
       <c r="Y4" t="n">
-        <v>630.5146080671432</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>574.6822048000824</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>540.5801360239099</v>
       </c>
       <c r="D5" t="n">
-        <v>778.0330208868171</v>
+        <v>104.6703511983544</v>
       </c>
       <c r="E5" t="n">
-        <v>748.2986800855164</v>
+        <v>74.93601039705362</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>51.10898484666541</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>51.10898484666541</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666541</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666541</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>486.3636722995833</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1118.837359777068</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1118.837359777068</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1118.837359777068</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1118.837359777068</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1207.322704144135</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1839.796391621619</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2386.295177580213</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.44924233327</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2471.797368517107</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2251.730141390146</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1992.507838707163</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1829.225412954589</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1424.369958365622</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1005.227494944933</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1000.98177528499</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>557.2807298379582</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.8242686746005</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.7339798211538</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.6135651481075</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>178.2297267642691</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.84463703045293</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666541</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>77.172658007123</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.7309829733353</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1034.20467045082</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1714.348746325474</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.893308773857</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.714665104459</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1344.378118104427</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1145.260600166427</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.9378458996207</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>805.0704101385006</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.5846309177214</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.001419529772</v>
+        <v>990.2649711489214</v>
       </c>
       <c r="C7" t="n">
-        <v>555.001419529772</v>
+        <v>817.7032596321463</v>
       </c>
       <c r="D7" t="n">
-        <v>389.1234267312947</v>
+        <v>651.825266833669</v>
       </c>
       <c r="E7" t="n">
-        <v>389.1234267312947</v>
+        <v>482.0672630844062</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>305.3602090461624</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>139.7689340719901</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.7689340719901</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666541</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>51.10898484666541</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.867439417801</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>744.077321185762</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1203.561188366675</v>
       </c>
       <c r="N7" t="n">
-        <v>1233.544589050298</v>
+        <v>1645.81999152432</v>
       </c>
       <c r="O7" t="n">
-        <v>1233.544589050298</v>
+        <v>2065.489240750101</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.996134720443</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.44924233327</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2534.031421038642</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2374.790052336639</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2128.910605915094</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1850.477605168199</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1850.477605168199</v>
       </c>
       <c r="W7" t="n">
-        <v>992.2117929153466</v>
+        <v>1578.451200754491</v>
       </c>
       <c r="X7" t="n">
-        <v>746.820038248759</v>
+        <v>1409.5032605538</v>
       </c>
       <c r="Y7" t="n">
-        <v>746.820038248759</v>
+        <v>1182.083589867909</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.069156190556</v>
+        <v>1156.295315593938</v>
       </c>
       <c r="C8" t="n">
-        <v>922.2621532402836</v>
+        <v>1122.193246817765</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>1090.323866032614</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>656.5491211909091</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7220956405209</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>1612.716505715692</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X8" t="n">
-        <v>1597.614446335406</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y8" t="n">
-        <v>1593.368726675464</v>
+        <v>1582.594886078846</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.0433221421854</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>288.4816106254103</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>122.603617826933</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>958.7861344791625</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>958.7861344791625</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.303983658873</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1205.881151908373</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>933.8547474946647</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>688.4629928280772</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>461.0433221421854</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1786.711071488336</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C11" t="n">
-        <v>1786.711071488336</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D11" t="n">
-        <v>1350.801286662783</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E11" t="n">
-        <v>917.0265418210784</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F11" t="n">
-        <v>770.6927076797069</v>
+        <v>793.2056155771614</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029708</v>
+        <v>391.8077842004244</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618708</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618708</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>80.16472174618708</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>914.5150137043651</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>1906.55344531343</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>1906.55344531343</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N11" t="n">
-        <v>1906.55344531343</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>2886.733111883736</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>3461.737301350759</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309354</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309354</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493191</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.51698636623</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.294683683246</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3445.294683683246</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3040.43922909428</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>2621.29676567359</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2213.010641973244</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374799</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741222</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206754</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476291</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637907</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299746</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618708</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066447</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.786719872857</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991424</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380223</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.640367817243</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1159.222882358069</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>986.6611708412935</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>820.7831780428162</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>651.0251742935534</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>474.3181202553096</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>308.7268452811372</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8246709715118</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618708</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108769</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820126</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499736</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2696.824331648987</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2450.944885227442</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2172.511884480547</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1885.556376350977</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.529971937269</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1368.138217270681</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1351.041501077056</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004254</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5358,25 +5358,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2650.81040391895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2404.930957497405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5522,43 +5522,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>3135.398407382223</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2424.946005269713</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2146.513004522818</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1859.557496393248</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1587.53109197954</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1342.139337312952</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="20">
@@ -5753,31 +5753,31 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>843.1660143917135</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>843.1660143917135</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>677.2880215932362</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>507.5300178439735</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>330.8229638057297</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1034.984633110701</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,55 +6212,55 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G26" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236976</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681876</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934735</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423629</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423629</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993936</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.389162827332</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785927</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.39013972282</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595859</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912875</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846702</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
         <v>406.885835245268</v>
@@ -6294,10 +6294,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
         <v>128.3245134312372</v>
@@ -6306,37 +6306,37 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
         <v>1196.412455590541</v>
@@ -6345,10 +6345,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>842.8792965674088</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799022</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1952.097456569359</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1434.679297489063</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I29" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993936</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.389162827332</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785927</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
         <v>406.885835245268</v>
@@ -6531,16 +6531,16 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2970399865837</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.855364952796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
         <v>1107.588885023173</v>
@@ -6564,16 +6564,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
         <v>1196.412455590541</v>
@@ -6582,10 +6582,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>777.0165135789917</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799022</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651792</v>
+        <v>2427.792782119709</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2006.050016716008</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1586.539939303329</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1169.1649018745</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>757.697179696584</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>372.6990557327241</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436397</v>
+        <v>99.96860858881647</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2608402707797</v>
+        <v>99.96860858881647</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236976</v>
+        <v>535.2232960417343</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681876</v>
+        <v>1369.573587999912</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934735</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934735</v>
+        <v>2474.288037325469</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423629</v>
+        <v>2474.288037325469</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993936</v>
+        <v>3454.467703895776</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.389162827332</v>
+        <v>4282.777578729172</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785927</v>
+        <v>4829.276364687767</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538983</v>
+        <v>4998.430429440823</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.39013972282</v>
+        <v>4914.77855562466</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595859</v>
+        <v>4694.711328497699</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912875</v>
+        <v>4435.489025814715</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846702</v>
+        <v>4072.872075748542</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257735</v>
+        <v>3668.016621159575</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837046</v>
+        <v>3248.874157738886</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136699</v>
+        <v>2840.588034038539</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620725</v>
+        <v>606.1403535801093</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987148</v>
+        <v>499.6838924167515</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>404.5936035633048</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>310.4731888902585</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>227.0893505064201</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545672</v>
+        <v>141.704260772604</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707797</v>
+        <v>99.96860858881647</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>126.0322817492741</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>450.5906067154864</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1646.035591973286</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749589</v>
+        <v>1763.208370067625</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197972</v>
+        <v>1699.752932516008</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>1569.57428884661</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528542</v>
+        <v>1393.237741846578</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>1194.120223908578</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>1008.797469641772</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626149</v>
+        <v>853.9300338806516</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418356</v>
+        <v>727.4442546598724</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>1064.228817310564</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886293</v>
+        <v>908.0668132066655</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030281</v>
+        <v>758.5885278210644</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666415</v>
+        <v>605.2302314846778</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412738</v>
+        <v>444.9228848593102</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799776</v>
+        <v>295.7313172980139</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>172.2288504012646</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707797</v>
+        <v>99.96860858881647</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>202.6216469888662</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>493.4534547953617</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>927.7366897986826</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1403.293910214956</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1861.62606660796</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2297.368669069102</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2660.948916274803</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2845.215044374495</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2840.196930492743</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2697.355269203616</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2467.875530194947</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542891</v>
+        <v>2205.842236860928</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1935.286436144235</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825366</v>
+        <v>1679.659739143402</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571654</v>
+        <v>1450.667691889691</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298639</v>
+        <v>1239.647728616676</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
         <v>755.2952747835855</v>
@@ -6929,55 +6929,55 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>532.8213911287357</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>1607.881357381595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2764.929192592146</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>3890.660176028593</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>4870.8398425989</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4878.335183790892</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7008,10 +7008,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J36" t="n">
         <v>448.1887018024878</v>
@@ -7072,25 +7072,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716791</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463116</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7111,13 +7111,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
         <v>2694.953364290617</v>
@@ -7126,7 +7126,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
         <v>1932.884531231236</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
@@ -7163,43 +7163,43 @@
         <v>755.2952747835857</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>444.7825334645028</v>
+        <v>444.7825334645019</v>
       </c>
       <c r="K38" t="n">
-        <v>1279.132825422681</v>
+        <v>1279.13282542268</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.19279167554</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.19279167554</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
         <v>4607.415497673521</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
         <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
         <v>442.520979946312</v>
@@ -7327,7 +7327,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7342,7 +7342,7 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
@@ -7360,13 +7360,13 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U40" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
         <v>1677.257834230404</v>
@@ -7375,7 +7375,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7415,46 +7415,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.192791675538</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.60290339162182</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>422.1612283578341</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="Q42" t="n">
         <v>1643.633687060287</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7591,13 +7591,13 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
@@ -7606,7 +7606,7 @@
         <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
         <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835853</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197254</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7667,31 +7667,31 @@
         <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673519</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>97.60290339162182</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>422.1612283578341</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="Q45" t="n">
         <v>1643.633687060287</v>
@@ -7783,16 +7783,16 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463117</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
         <v>293.3294123850156</v>
@@ -7801,16 +7801,16 @@
         <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758677</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823632</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7819,25 +7819,25 @@
         <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156101</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361803</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461495</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579743</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290616</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7976,14 +7976,14 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8058,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>638.8623105833177</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>89.37913572430989</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833176</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,16 +8295,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833176</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>22.45692843256506</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>143.8920278917449</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,25 +8611,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>394.8387895261749</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827338</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>580.8123125929524</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>695.4268903509978</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9401,25 +9401,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352469</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10118,7 +10118,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352469</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949901579</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>29.95402330575507</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352469</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>7.571051709083804</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>350.723060392611</v>
+        <v>350.7230603926101</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -11063,10 +11063,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11315,10 +11315,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>463.0908366609701</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>172.5845172488566</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>179.7086163228373</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>96.90113567564273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>55.17707787841471</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>278.7182594949267</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>90.22000922290086</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.30086641797044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>201.6494670918343</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>65.20415515853283</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>838664.3864092765</v>
+        <v>700016.3579188969</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>914164.420989372</v>
+        <v>929567.6048203026</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>914164.420989372</v>
+        <v>931624.5238701062</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796333.1654439892</v>
+        <v>950215.6864811679</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>965311.5070798842</v>
+        <v>963731.0943736642</v>
       </c>
     </row>
     <row r="13">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61210.72001860139</v>
+        <v>50545.48705780297</v>
       </c>
       <c r="C2" t="n">
-        <v>67018.41498630104</v>
+        <v>67018.41498630105</v>
       </c>
       <c r="D2" t="n">
-        <v>67018.41498630105</v>
+        <v>67018.41498630102</v>
       </c>
       <c r="E2" t="n">
-        <v>55191.96505637062</v>
+        <v>65857.19801716905</v>
       </c>
       <c r="F2" t="n">
-        <v>65857.19801716902</v>
+        <v>65857.19801716904</v>
       </c>
       <c r="G2" t="n">
-        <v>65857.19801716902</v>
+        <v>65857.19801716904</v>
       </c>
       <c r="H2" t="n">
         <v>65857.19801716902</v>
       </c>
       <c r="I2" t="n">
+        <v>65857.19801716902</v>
+      </c>
+      <c r="J2" t="n">
         <v>65857.19801716904</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>65857.19801716902</v>
       </c>
-      <c r="K2" t="n">
-        <v>65857.19801716904</v>
-      </c>
       <c r="L2" t="n">
-        <v>67018.41498630108</v>
+        <v>67018.41498630107</v>
       </c>
       <c r="M2" t="n">
-        <v>67018.41498630108</v>
+        <v>67018.41498630107</v>
       </c>
       <c r="N2" t="n">
-        <v>67018.41498630107</v>
+        <v>67018.41498630105</v>
       </c>
       <c r="O2" t="n">
         <v>67018.41498630108</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>69320.1311837191</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8900.44909210267</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725255</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471738</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449904</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55222.53889197306</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099794</v>
+        <v>12988.5682709979</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978842</v>
+        <v>144718.1170387515</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341093</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185574.3908571701</v>
+        <v>136875.4802388638</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.119437218</v>
+        <v>178390.1777075796</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>79513.37073726705</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875286</v>
@@ -26439,16 +26439,16 @@
         <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875282</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875283</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>100220.802465386</v>
+        <v>103678.8250359892</v>
       </c>
       <c r="M4" t="n">
-        <v>107302.2988178705</v>
+        <v>107302.2988178706</v>
       </c>
       <c r="N4" t="n">
         <v>107302.2988178706</v>
@@ -26470,46 +26470,46 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72470.42848346572</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710218</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="G5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="H5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="J5" t="n">
         <v>77718.2386057925</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>77718.2386057925</v>
       </c>
-      <c r="H5" t="n">
-        <v>77718.2386057925</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77718.2386057925</v>
-      </c>
-      <c r="J5" t="n">
-        <v>77718.23860579253</v>
-      </c>
-      <c r="K5" t="n">
-        <v>77718.23860579255</v>
-      </c>
       <c r="L5" t="n">
-        <v>79083.1585382607</v>
+        <v>77341.06245996866</v>
       </c>
       <c r="M5" t="n">
+        <v>75515.61472608973</v>
+      </c>
+      <c r="N5" t="n">
         <v>75515.61472608971</v>
       </c>
-      <c r="N5" t="n">
-        <v>75515.61472608973</v>
-      </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325979.759635501</v>
+        <v>-288275.540536563</v>
       </c>
       <c r="C6" t="n">
-        <v>-204499.4925881393</v>
+        <v>-253162.3223884634</v>
       </c>
       <c r="D6" t="n">
-        <v>-204499.4925881393</v>
+        <v>-189984.0939340024</v>
       </c>
       <c r="E6" t="n">
-        <v>-257753.964280524</v>
+        <v>-289117.8187978088</v>
       </c>
       <c r="F6" t="n">
-        <v>-185878.3909420937</v>
+        <v>-106762.709576759</v>
       </c>
       <c r="G6" t="n">
-        <v>-106739.4852373764</v>
+        <v>-106762.709576759</v>
       </c>
       <c r="H6" t="n">
-        <v>-106739.4852373763</v>
+        <v>-106762.709576759</v>
       </c>
       <c r="I6" t="n">
-        <v>-106739.4852373763</v>
+        <v>-106762.709576759</v>
       </c>
       <c r="J6" t="n">
-        <v>-217753.9505823667</v>
+        <v>-217777.1749217491</v>
       </c>
       <c r="K6" t="n">
-        <v>-106739.4852373763</v>
+        <v>-161985.2484687321</v>
       </c>
       <c r="L6" t="n">
-        <v>-125274.1142883436</v>
+        <v>-126990.0407806547</v>
       </c>
       <c r="M6" t="n">
-        <v>-245157.9199555434</v>
+        <v>-260517.6155964107</v>
       </c>
       <c r="N6" t="n">
-        <v>-183448.6988310702</v>
+        <v>-115799.4985576592</v>
       </c>
       <c r="O6" t="n">
-        <v>-115799.4985576591</v>
+        <v>-115799.4985576592</v>
       </c>
       <c r="P6" t="n">
         <v>-115799.4985576592</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.90236543486465e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26722,10 +26722,10 @@
         <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26790,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833176</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827338</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26811,13 +26811,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="K4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384746</v>
+        <v>1249.607607360206</v>
       </c>
       <c r="M4" t="n">
         <v>1219.583795947723</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.90236543486465e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>214.5664530632132</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.65289602453939</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072342</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574065</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201051</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632132</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702115</v>
+        <v>580.7214853644061</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574066</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.90236543486465e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632132</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>28.65289602453939</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072342</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574065</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>327.4238165735661</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>256.8524801444311</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>144.8086836577311</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>387.8854154687014</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>197.3411790704635</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>125.7505377404317</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>75.6793763212381</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>191.4021151676413</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>110.5076572325426</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>135.3636110865062</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.11734961527941</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.90236543486465e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.689945897479454e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.90236543486465e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28150,13 +28150,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.90236543486465e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.90236543486465e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.90236543486465e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-2.250284225788571e-14</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29329,13 +29329,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-8.90236543486465e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-2.401849247225543e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>13.36927538041681</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
         <v>16.23571033874737</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874578</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874744</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
   </sheetData>
@@ -34696,14 +34696,14 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>638.8623105833177</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>89.37913572430989</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833176</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,22 +35009,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833176</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>22.45692843256506</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644312</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>143.8920278917449</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>394.8387895261749</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827338</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.080471283138</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>580.8123125929524</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35571,7 +35571,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>695.4268903509978</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,25 +36121,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352469</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36832,13 +36832,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352469</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949901579</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>29.95402330575507</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352469</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P34" t="n">
         <v>367.2527749552542</v>
@@ -37306,28 +37306,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>7.571051709083804</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>350.723060392611</v>
+        <v>350.7230603926101</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37710,16 +37710,16 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38035,10 +38035,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>463.0908366609701</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38175,25 +38175,25 @@
         <v>103.6899377778281</v>
       </c>
       <c r="K46" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343482</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900401</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
